--- a/natmiOut/OldD2/LR-pairs_lrc2p/Fbn1-Itgb1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Fbn1-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.2575639641286</v>
+        <v>20.785713</v>
       </c>
       <c r="H2">
-        <v>20.2575639641286</v>
+        <v>41.571426</v>
       </c>
       <c r="I2">
-        <v>0.06071959664415014</v>
+        <v>0.05790803399871285</v>
       </c>
       <c r="J2">
-        <v>0.06071959664415014</v>
+        <v>0.04024709532822476</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N2">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O2">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P2">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q2">
-        <v>3333.830630977327</v>
+        <v>3420.855910936367</v>
       </c>
       <c r="R2">
-        <v>3333.830630977327</v>
+        <v>13683.42364374547</v>
       </c>
       <c r="S2">
-        <v>0.01438624027037339</v>
+        <v>0.01343909659183136</v>
       </c>
       <c r="T2">
-        <v>0.01438624027037339</v>
+        <v>0.00726700760181175</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.2575639641286</v>
+        <v>20.785713</v>
       </c>
       <c r="H3">
-        <v>20.2575639641286</v>
+        <v>41.571426</v>
       </c>
       <c r="I3">
-        <v>0.06071959664415014</v>
+        <v>0.05790803399871285</v>
       </c>
       <c r="J3">
-        <v>0.06071959664415014</v>
+        <v>0.04024709532822476</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N3">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O3">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P3">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q3">
-        <v>2256.110867211768</v>
+        <v>2468.601236445864</v>
       </c>
       <c r="R3">
-        <v>2256.110867211768</v>
+        <v>14811.60741867518</v>
       </c>
       <c r="S3">
-        <v>0.009735633451419234</v>
+        <v>0.009698090573545766</v>
       </c>
       <c r="T3">
-        <v>0.009735633451419234</v>
+        <v>0.007866164675516939</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.2575639641286</v>
+        <v>20.785713</v>
       </c>
       <c r="H4">
-        <v>20.2575639641286</v>
+        <v>41.571426</v>
       </c>
       <c r="I4">
-        <v>0.06071959664415014</v>
+        <v>0.05790803399871285</v>
       </c>
       <c r="J4">
-        <v>0.06071959664415014</v>
+        <v>0.04024709532822476</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N4">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O4">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P4">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q4">
-        <v>1702.073968952735</v>
+        <v>1757.056997530341</v>
       </c>
       <c r="R4">
-        <v>1702.073968952735</v>
+        <v>10542.34198518205</v>
       </c>
       <c r="S4">
-        <v>0.007344837751437835</v>
+        <v>0.006902734088177354</v>
       </c>
       <c r="T4">
-        <v>0.007344837751437835</v>
+        <v>0.005598838517452117</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.2575639641286</v>
+        <v>20.785713</v>
       </c>
       <c r="H5">
-        <v>20.2575639641286</v>
+        <v>41.571426</v>
       </c>
       <c r="I5">
-        <v>0.06071959664415014</v>
+        <v>0.05790803399871285</v>
       </c>
       <c r="J5">
-        <v>0.06071959664415014</v>
+        <v>0.04024709532822476</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N5">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O5">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P5">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q5">
-        <v>1600.373838788417</v>
+        <v>1655.284839396955</v>
       </c>
       <c r="R5">
-        <v>1600.373838788417</v>
+        <v>9931.709036381731</v>
       </c>
       <c r="S5">
-        <v>0.006905978472121892</v>
+        <v>0.006502914306484375</v>
       </c>
       <c r="T5">
-        <v>0.006905978472121892</v>
+        <v>0.005274542902817914</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>20.2575639641286</v>
+        <v>20.785713</v>
       </c>
       <c r="H6">
-        <v>20.2575639641286</v>
+        <v>41.571426</v>
       </c>
       <c r="I6">
-        <v>0.06071959664415014</v>
+        <v>0.05790803399871285</v>
       </c>
       <c r="J6">
-        <v>0.06071959664415014</v>
+        <v>0.04024709532822476</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N6">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O6">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P6">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q6">
-        <v>2351.391814173419</v>
+        <v>2530.313103771492</v>
       </c>
       <c r="R6">
-        <v>2351.391814173419</v>
+        <v>15181.87862262895</v>
       </c>
       <c r="S6">
-        <v>0.01014679248974662</v>
+        <v>0.009940530409494421</v>
       </c>
       <c r="T6">
-        <v>0.01014679248974662</v>
+        <v>0.008062808711682109</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>20.2575639641286</v>
+        <v>20.785713</v>
       </c>
       <c r="H7">
-        <v>20.2575639641286</v>
+        <v>41.571426</v>
       </c>
       <c r="I7">
-        <v>0.06071959664415014</v>
+        <v>0.05790803399871285</v>
       </c>
       <c r="J7">
-        <v>0.06071959664415014</v>
+        <v>0.04024709532822476</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N7">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O7">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P7">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q7">
-        <v>2827.223352811475</v>
+        <v>2908.093032225089</v>
       </c>
       <c r="R7">
-        <v>2827.223352811475</v>
+        <v>11632.37212890036</v>
       </c>
       <c r="S7">
-        <v>0.01220011420905117</v>
+        <v>0.01142466802917959</v>
       </c>
       <c r="T7">
-        <v>0.01220011420905117</v>
+        <v>0.006177732918943926</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>280.79603569247</v>
+        <v>303.0688273333333</v>
       </c>
       <c r="H8">
-        <v>280.79603569247</v>
+        <v>909.2064820000001</v>
       </c>
       <c r="I8">
-        <v>0.8416521382686688</v>
+        <v>0.8443357202694322</v>
       </c>
       <c r="J8">
-        <v>0.8416521382686688</v>
+        <v>0.8802421151993648</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N8">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O8">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P8">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q8">
-        <v>46211.20419544127</v>
+        <v>49878.24037615579</v>
       </c>
       <c r="R8">
-        <v>46211.20419544127</v>
+        <v>299269.4422569348</v>
       </c>
       <c r="S8">
-        <v>0.1994118959018666</v>
+        <v>0.1959505187291736</v>
       </c>
       <c r="T8">
-        <v>0.1994118959018666</v>
+        <v>0.1589363428695114</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>280.79603569247</v>
+        <v>303.0688273333333</v>
       </c>
       <c r="H9">
-        <v>280.79603569247</v>
+        <v>909.2064820000001</v>
       </c>
       <c r="I9">
-        <v>0.8416521382686688</v>
+        <v>0.8443357202694322</v>
       </c>
       <c r="J9">
-        <v>0.8416521382686688</v>
+        <v>0.8802421151993648</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N9">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O9">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P9">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q9">
-        <v>31272.61445243651</v>
+        <v>35993.76561599136</v>
       </c>
       <c r="R9">
-        <v>31272.61445243651</v>
+        <v>323943.8905439223</v>
       </c>
       <c r="S9">
-        <v>0.1349484707516812</v>
+        <v>0.1414042875265799</v>
       </c>
       <c r="T9">
-        <v>0.1349484707516812</v>
+        <v>0.1720404758657889</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>280.79603569247</v>
+        <v>303.0688273333333</v>
       </c>
       <c r="H10">
-        <v>280.79603569247</v>
+        <v>909.2064820000001</v>
       </c>
       <c r="I10">
-        <v>0.8416521382686688</v>
+        <v>0.8443357202694322</v>
       </c>
       <c r="J10">
-        <v>0.8416521382686688</v>
+        <v>0.8802421151993648</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N10">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O10">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P10">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q10">
-        <v>23592.94650549237</v>
+        <v>25619.00108018176</v>
       </c>
       <c r="R10">
-        <v>23592.94650549237</v>
+        <v>230571.0097216358</v>
       </c>
       <c r="S10">
-        <v>0.101808950328883</v>
+        <v>0.1006462239470802</v>
       </c>
       <c r="T10">
-        <v>0.101808950328883</v>
+        <v>0.1224519041453795</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>280.79603569247</v>
+        <v>303.0688273333333</v>
       </c>
       <c r="H11">
-        <v>280.79603569247</v>
+        <v>909.2064820000001</v>
       </c>
       <c r="I11">
-        <v>0.8416521382686688</v>
+        <v>0.8443357202694322</v>
       </c>
       <c r="J11">
-        <v>0.8416521382686688</v>
+        <v>0.8802421151993648</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N11">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O11">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P11">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q11">
-        <v>22183.25117242487</v>
+        <v>24135.09871798384</v>
       </c>
       <c r="R11">
-        <v>22183.25117242487</v>
+        <v>217215.8884618546</v>
       </c>
       <c r="S11">
-        <v>0.0957257931399445</v>
+        <v>0.09481659893578709</v>
       </c>
       <c r="T11">
-        <v>0.0957257931399445</v>
+        <v>0.1153592517328885</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>280.79603569247</v>
+        <v>303.0688273333333</v>
       </c>
       <c r="H12">
-        <v>280.79603569247</v>
+        <v>909.2064820000001</v>
       </c>
       <c r="I12">
-        <v>0.8416521382686688</v>
+        <v>0.8443357202694322</v>
       </c>
       <c r="J12">
-        <v>0.8416521382686688</v>
+        <v>0.8802421151993648</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N12">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O12">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P12">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q12">
-        <v>32593.33160437206</v>
+        <v>36893.56362931563</v>
       </c>
       <c r="R12">
-        <v>32593.33160437206</v>
+        <v>332042.0726638407</v>
       </c>
       <c r="S12">
-        <v>0.140647666775739</v>
+        <v>0.1449392135009664</v>
       </c>
       <c r="T12">
-        <v>0.140647666775739</v>
+        <v>0.1763412672874739</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>280.79603569247</v>
+        <v>303.0688273333333</v>
       </c>
       <c r="H13">
-        <v>280.79603569247</v>
+        <v>909.2064820000001</v>
       </c>
       <c r="I13">
-        <v>0.8416521382686688</v>
+        <v>0.8443357202694322</v>
       </c>
       <c r="J13">
-        <v>0.8416521382686688</v>
+        <v>0.8802421151993648</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N13">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O13">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P13">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q13">
-        <v>39188.97212381504</v>
+        <v>42401.83365625683</v>
       </c>
       <c r="R13">
-        <v>39188.97212381504</v>
+        <v>254411.001937541</v>
       </c>
       <c r="S13">
-        <v>0.1691093613705543</v>
+        <v>0.1665788776298451</v>
       </c>
       <c r="T13">
-        <v>0.1691093613705543</v>
+        <v>0.1351128732983227</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.435909221284266</v>
+        <v>0.201937</v>
       </c>
       <c r="H14">
-        <v>0.435909221284266</v>
+        <v>0.605811</v>
       </c>
       <c r="I14">
-        <v>0.001306585142059295</v>
+        <v>0.000562587131920761</v>
       </c>
       <c r="J14">
-        <v>0.001306585142059295</v>
+        <v>0.0005865118282901136</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N14">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O14">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P14">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q14">
-        <v>71.73851292368228</v>
+        <v>33.2342402729585</v>
       </c>
       <c r="R14">
-        <v>71.73851292368228</v>
+        <v>199.405441637751</v>
       </c>
       <c r="S14">
-        <v>0.0003095680608276223</v>
+        <v>0.0001305632791362341</v>
       </c>
       <c r="T14">
-        <v>0.0003095680608276223</v>
+        <v>0.0001059004601444554</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.435909221284266</v>
+        <v>0.201937</v>
       </c>
       <c r="H15">
-        <v>0.435909221284266</v>
+        <v>0.605811</v>
       </c>
       <c r="I15">
-        <v>0.001306585142059295</v>
+        <v>0.000562587131920761</v>
       </c>
       <c r="J15">
-        <v>0.001306585142059295</v>
+        <v>0.0005865118282901136</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N15">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O15">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P15">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q15">
-        <v>48.54776877410968</v>
+        <v>23.982912103336</v>
       </c>
       <c r="R15">
-        <v>48.54776877410968</v>
+        <v>215.846208930024</v>
       </c>
       <c r="S15">
-        <v>0.0002094947054854215</v>
+        <v>9.421872206886101E-05</v>
       </c>
       <c r="T15">
-        <v>0.0002094947054854215</v>
+        <v>0.0001146318408283515</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.435909221284266</v>
+        <v>0.201937</v>
       </c>
       <c r="H16">
-        <v>0.435909221284266</v>
+        <v>0.605811</v>
       </c>
       <c r="I16">
-        <v>0.001306585142059295</v>
+        <v>0.000562587131920761</v>
       </c>
       <c r="J16">
-        <v>0.001306585142059295</v>
+        <v>0.0005865118282901136</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N16">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O16">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P16">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q16">
-        <v>36.62581244656197</v>
+        <v>17.070129800709</v>
       </c>
       <c r="R16">
-        <v>36.62581244656197</v>
+        <v>153.631168206381</v>
       </c>
       <c r="S16">
-        <v>0.0001580487422060212</v>
+        <v>6.706132301375808E-05</v>
       </c>
       <c r="T16">
-        <v>0.0001580487422060212</v>
+        <v>8.159060892200773E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.435909221284266</v>
+        <v>0.201937</v>
       </c>
       <c r="H17">
-        <v>0.435909221284266</v>
+        <v>0.605811</v>
       </c>
       <c r="I17">
-        <v>0.001306585142059295</v>
+        <v>0.000562587131920761</v>
       </c>
       <c r="J17">
-        <v>0.001306585142059295</v>
+        <v>0.0005865118282901136</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N17">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O17">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P17">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q17">
-        <v>34.43739410450772</v>
+        <v>16.08139468746167</v>
       </c>
       <c r="R17">
-        <v>34.43739410450772</v>
+        <v>144.732552187155</v>
       </c>
       <c r="S17">
-        <v>0.0001486052174545388</v>
+        <v>6.317700077493302E-05</v>
       </c>
       <c r="T17">
-        <v>0.0001486052174545388</v>
+        <v>7.686472218920331E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.435909221284266</v>
+        <v>0.201937</v>
       </c>
       <c r="H18">
-        <v>0.435909221284266</v>
+        <v>0.605811</v>
       </c>
       <c r="I18">
-        <v>0.001306585142059295</v>
+        <v>0.000562587131920761</v>
       </c>
       <c r="J18">
-        <v>0.001306585142059295</v>
+        <v>0.0005865118282901136</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N18">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O18">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P18">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q18">
-        <v>50.59805692656609</v>
+        <v>24.582454171108</v>
       </c>
       <c r="R18">
-        <v>50.59805692656609</v>
+        <v>221.242087539972</v>
       </c>
       <c r="S18">
-        <v>0.0002183421669343228</v>
+        <v>9.657406937650273E-05</v>
       </c>
       <c r="T18">
-        <v>0.0002183421669343228</v>
+        <v>0.0001174974899449648</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.435909221284266</v>
+        <v>0.201937</v>
       </c>
       <c r="H19">
-        <v>0.435909221284266</v>
+        <v>0.605811</v>
       </c>
       <c r="I19">
-        <v>0.001306585142059295</v>
+        <v>0.000562587131920761</v>
       </c>
       <c r="J19">
-        <v>0.001306585142059295</v>
+        <v>0.0005865118282901136</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N19">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O19">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P19">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q19">
-        <v>60.83716345672441</v>
+        <v>28.2526552083365</v>
       </c>
       <c r="R19">
-        <v>60.83716345672441</v>
+        <v>169.515931250019</v>
       </c>
       <c r="S19">
-        <v>0.0002625262491513682</v>
+        <v>0.0001109927375504722</v>
       </c>
       <c r="T19">
-        <v>0.0002625262491513682</v>
+        <v>9.002670626113087E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>11.2067450726403</v>
+        <v>0.450118</v>
       </c>
       <c r="H20">
-        <v>11.2067450726403</v>
+        <v>1.350354</v>
       </c>
       <c r="I20">
-        <v>0.03359086224333229</v>
+        <v>0.001254007906653605</v>
       </c>
       <c r="J20">
-        <v>0.03359086224333229</v>
+        <v>0.001307336105450162</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N20">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O20">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P20">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q20">
-        <v>1844.318006986464</v>
+        <v>74.079191842919</v>
       </c>
       <c r="R20">
-        <v>1844.318006986464</v>
+        <v>444.475151057514</v>
       </c>
       <c r="S20">
-        <v>0.007958653249191979</v>
+        <v>0.0002910258252734438</v>
       </c>
       <c r="T20">
-        <v>0.007958653249191979</v>
+        <v>0.0002360523495907238</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>11.2067450726403</v>
+        <v>0.450118</v>
       </c>
       <c r="H21">
-        <v>11.2067450726403</v>
+        <v>1.350354</v>
       </c>
       <c r="I21">
-        <v>0.03359086224333229</v>
+        <v>0.001254007906653605</v>
       </c>
       <c r="J21">
-        <v>0.03359086224333229</v>
+        <v>0.001307336105450162</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N21">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O21">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P21">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q21">
-        <v>1248.109564863137</v>
+        <v>53.457961790704</v>
       </c>
       <c r="R21">
-        <v>1248.109564863137</v>
+        <v>481.121656116336</v>
       </c>
       <c r="S21">
-        <v>0.005385877709872893</v>
+        <v>0.0002100137307189449</v>
       </c>
       <c r="T21">
-        <v>0.005385877709872893</v>
+        <v>0.0002555146155978147</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>11.2067450726403</v>
+        <v>0.450118</v>
       </c>
       <c r="H22">
-        <v>11.2067450726403</v>
+        <v>1.350354</v>
       </c>
       <c r="I22">
-        <v>0.03359086224333229</v>
+        <v>0.001254007906653605</v>
       </c>
       <c r="J22">
-        <v>0.03359086224333229</v>
+        <v>0.001307336105450162</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N22">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O22">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P22">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q22">
-        <v>941.6092230342808</v>
+        <v>38.04935542092601</v>
       </c>
       <c r="R22">
-        <v>941.6092230342808</v>
+        <v>342.4441987883341</v>
       </c>
       <c r="S22">
-        <v>0.0040632587623084</v>
+        <v>0.0001494798308002335</v>
       </c>
       <c r="T22">
-        <v>0.0040632587623084</v>
+        <v>0.0001818656398122002</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>11.2067450726403</v>
+        <v>0.450118</v>
       </c>
       <c r="H23">
-        <v>11.2067450726403</v>
+        <v>1.350354</v>
       </c>
       <c r="I23">
-        <v>0.03359086224333229</v>
+        <v>0.001254007906653605</v>
       </c>
       <c r="J23">
-        <v>0.03359086224333229</v>
+        <v>0.001307336105450162</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N23">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O23">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P23">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q23">
-        <v>885.3474022830773</v>
+        <v>35.84546276279666</v>
       </c>
       <c r="R23">
-        <v>885.3474022830773</v>
+        <v>322.60916486517</v>
       </c>
       <c r="S23">
-        <v>0.003820476161460373</v>
+        <v>0.000140821668316412</v>
       </c>
       <c r="T23">
-        <v>0.003820476161460373</v>
+        <v>0.0001713316282917931</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>11.2067450726403</v>
+        <v>0.450118</v>
       </c>
       <c r="H24">
-        <v>11.2067450726403</v>
+        <v>1.350354</v>
       </c>
       <c r="I24">
-        <v>0.03359086224333229</v>
+        <v>0.001254007906653605</v>
       </c>
       <c r="J24">
-        <v>0.03359086224333229</v>
+        <v>0.001307336105450162</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N24">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O24">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P24">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q24">
-        <v>1300.820210860345</v>
+        <v>54.79434232751199</v>
       </c>
       <c r="R24">
-        <v>1300.820210860345</v>
+        <v>493.149080947608</v>
       </c>
       <c r="S24">
-        <v>0.005613336180941093</v>
+        <v>0.0002152638048481093</v>
       </c>
       <c r="T24">
-        <v>0.005613336180941093</v>
+        <v>0.0002619021535382208</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>11.2067450726403</v>
+        <v>0.450118</v>
       </c>
       <c r="H25">
-        <v>11.2067450726403</v>
+        <v>1.350354</v>
       </c>
       <c r="I25">
-        <v>0.03359086224333229</v>
+        <v>0.001254007906653605</v>
       </c>
       <c r="J25">
-        <v>0.03359086224333229</v>
+        <v>0.001307336105450162</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N25">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O25">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P25">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q25">
-        <v>1564.056341348766</v>
+        <v>62.97522820021101</v>
       </c>
       <c r="R25">
-        <v>1564.056341348766</v>
+        <v>377.851369201266</v>
       </c>
       <c r="S25">
-        <v>0.006749260179557548</v>
+        <v>0.000247403046696462</v>
       </c>
       <c r="T25">
-        <v>0.006749260179557548</v>
+        <v>0.0002006697186194096</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>20.928557209685</v>
+        <v>11.297097</v>
       </c>
       <c r="H26">
-        <v>20.928557209685</v>
+        <v>33.891291</v>
       </c>
       <c r="I26">
-        <v>0.06273081770178961</v>
+        <v>0.03147318916424743</v>
       </c>
       <c r="J26">
-        <v>0.06273081770178961</v>
+        <v>0.03281162449596041</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N26">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O26">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P26">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q26">
-        <v>3444.257424602463</v>
+        <v>1859.245388833738</v>
       </c>
       <c r="R26">
-        <v>3444.257424602463</v>
+        <v>11155.47233300243</v>
       </c>
       <c r="S26">
-        <v>0.0148627570947786</v>
+        <v>0.00730418907401869</v>
       </c>
       <c r="T26">
-        <v>0.0148627570947786</v>
+        <v>0.005924460453490677</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,61 +2078,61 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>20.928557209685</v>
+        <v>11.297097</v>
       </c>
       <c r="H27">
-        <v>20.928557209685</v>
+        <v>33.891291</v>
       </c>
       <c r="I27">
-        <v>0.06273081770178961</v>
+        <v>0.03147318916424743</v>
       </c>
       <c r="J27">
-        <v>0.06273081770178961</v>
+        <v>0.03281162449596041</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N27">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O27">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P27">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q27">
-        <v>2330.840245127401</v>
+        <v>1341.692133555816</v>
       </c>
       <c r="R27">
-        <v>2330.840245127401</v>
+        <v>12075.22920200234</v>
       </c>
       <c r="S27">
-        <v>0.0100581077774874</v>
+        <v>0.005270941147129864</v>
       </c>
       <c r="T27">
-        <v>0.0100581077774874</v>
+        <v>0.006412925937923446</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>20.928557209685</v>
+        <v>11.297097</v>
       </c>
       <c r="H28">
-        <v>20.928557209685</v>
+        <v>33.891291</v>
       </c>
       <c r="I28">
-        <v>0.06273081770178961</v>
+        <v>0.03147318916424743</v>
       </c>
       <c r="J28">
-        <v>0.06273081770178961</v>
+        <v>0.03281162449596041</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N28">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O28">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P28">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q28">
-        <v>1758.451929235966</v>
+        <v>954.9657178288289</v>
       </c>
       <c r="R28">
-        <v>1758.451929235966</v>
+        <v>8594.69146045946</v>
       </c>
       <c r="S28">
-        <v>0.007588121520880665</v>
+        <v>0.003751656561376851</v>
       </c>
       <c r="T28">
-        <v>0.007588121520880665</v>
+        <v>0.004564478145565135</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,61 +2202,61 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>20.928557209685</v>
+        <v>11.297097</v>
       </c>
       <c r="H29">
-        <v>20.928557209685</v>
+        <v>33.891291</v>
       </c>
       <c r="I29">
-        <v>0.06273081770178961</v>
+        <v>0.03147318916424743</v>
       </c>
       <c r="J29">
-        <v>0.06273081770178961</v>
+        <v>0.03281162449596041</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N29">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O29">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P29">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q29">
-        <v>1653.383175848574</v>
+        <v>899.6522463913949</v>
       </c>
       <c r="R29">
-        <v>1653.383175848574</v>
+        <v>8096.870217522554</v>
       </c>
       <c r="S29">
-        <v>0.007134725863316469</v>
+        <v>0.003534353317735201</v>
       </c>
       <c r="T29">
-        <v>0.007134725863316469</v>
+        <v>0.004300094695125123</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>20.928557209685</v>
+        <v>11.297097</v>
       </c>
       <c r="H30">
-        <v>20.928557209685</v>
+        <v>33.891291</v>
       </c>
       <c r="I30">
-        <v>0.06273081770178961</v>
+        <v>0.03147318916424743</v>
       </c>
       <c r="J30">
-        <v>0.06273081770178961</v>
+        <v>0.03281162449596041</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N30">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O30">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P30">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q30">
-        <v>2429.277192087606</v>
+        <v>1375.232717476548</v>
       </c>
       <c r="R30">
-        <v>2429.277192087606</v>
+        <v>12377.09445728893</v>
       </c>
       <c r="S30">
-        <v>0.01048288567630837</v>
+        <v>0.005402707920941089</v>
       </c>
       <c r="T30">
-        <v>0.01048288567630837</v>
+        <v>0.006573240868017215</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>11.297097</v>
+      </c>
+      <c r="H31">
+        <v>33.891291</v>
+      </c>
+      <c r="I31">
+        <v>0.03147318916424743</v>
+      </c>
+      <c r="J31">
+        <v>0.03281162449596041</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>139.9082645</v>
+      </c>
+      <c r="N31">
+        <v>279.816529</v>
+      </c>
+      <c r="O31">
+        <v>0.1972898618770847</v>
+      </c>
+      <c r="P31">
+        <v>0.1534951247677137</v>
+      </c>
+      <c r="Q31">
+        <v>1580.557235158156</v>
+      </c>
+      <c r="R31">
+        <v>9483.343410948937</v>
+      </c>
+      <c r="S31">
+        <v>0.006209341143045735</v>
+      </c>
+      <c r="T31">
+        <v>0.005036424395838814</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>23.139818</v>
+      </c>
+      <c r="H32">
+        <v>46.279636</v>
+      </c>
+      <c r="I32">
+        <v>0.06446646152903331</v>
+      </c>
+      <c r="J32">
+        <v>0.04480531704270962</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>164.5772705</v>
+      </c>
+      <c r="N32">
+        <v>329.154541</v>
+      </c>
+      <c r="O32">
+        <v>0.2320765473082729</v>
+      </c>
+      <c r="P32">
+        <v>0.1805598029509348</v>
+      </c>
+      <c r="Q32">
+        <v>3808.288086306768</v>
+      </c>
+      <c r="R32">
+        <v>15233.15234522707</v>
+      </c>
+      <c r="S32">
+        <v>0.01496115380883965</v>
+      </c>
+      <c r="T32">
+        <v>0.008090039216385811</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>23.139818</v>
+      </c>
+      <c r="H33">
+        <v>46.279636</v>
+      </c>
+      <c r="I33">
+        <v>0.06446646152903331</v>
+      </c>
+      <c r="J33">
+        <v>0.04480531704270962</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>118.764328</v>
+      </c>
+      <c r="N33">
+        <v>356.292984</v>
+      </c>
+      <c r="O33">
+        <v>0.1674740084210307</v>
+      </c>
+      <c r="P33">
+        <v>0.1954467673099505</v>
+      </c>
+      <c r="Q33">
+        <v>2748.184934812304</v>
+      </c>
+      <c r="R33">
+        <v>16489.10960887382</v>
+      </c>
+      <c r="S33">
+        <v>0.01079645672098737</v>
+      </c>
+      <c r="T33">
+        <v>0.008757054374295027</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>23.139818</v>
+      </c>
+      <c r="H34">
+        <v>46.279636</v>
+      </c>
+      <c r="I34">
+        <v>0.06446646152903331</v>
+      </c>
+      <c r="J34">
+        <v>0.04480531704270962</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>84.53195700000001</v>
+      </c>
+      <c r="N34">
+        <v>253.595871</v>
+      </c>
+      <c r="O34">
+        <v>0.1192016653221345</v>
+      </c>
+      <c r="P34">
+        <v>0.1391116171686985</v>
+      </c>
+      <c r="Q34">
+        <v>1956.054100163826</v>
+      </c>
+      <c r="R34">
+        <v>11736.32460098296</v>
+      </c>
+      <c r="S34">
+        <v>0.007684509571686086</v>
+      </c>
+      <c r="T34">
+        <v>0.006232940111567584</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>23.139818</v>
+      </c>
+      <c r="H35">
+        <v>46.279636</v>
+      </c>
+      <c r="I35">
+        <v>0.06446646152903331</v>
+      </c>
+      <c r="J35">
+        <v>0.04480531704270962</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>79.63570166666666</v>
+      </c>
+      <c r="N35">
+        <v>238.907105</v>
+      </c>
+      <c r="O35">
+        <v>0.1122972730628175</v>
+      </c>
+      <c r="P35">
+        <v>0.1310540017808179</v>
+      </c>
+      <c r="Q35">
+        <v>1842.755642868963</v>
+      </c>
+      <c r="R35">
+        <v>11056.53385721378</v>
+      </c>
+      <c r="S35">
+        <v>0.007239407833719471</v>
+      </c>
+      <c r="T35">
+        <v>0.005871916099505377</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>20.928557209685</v>
-      </c>
-      <c r="H31">
-        <v>20.928557209685</v>
-      </c>
-      <c r="I31">
-        <v>0.06273081770178961</v>
-      </c>
-      <c r="J31">
-        <v>0.06273081770178961</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>139.563836886697</v>
-      </c>
-      <c r="N31">
-        <v>139.563836886697</v>
-      </c>
-      <c r="O31">
-        <v>0.2009254817773325</v>
-      </c>
-      <c r="P31">
-        <v>0.2009254817773325</v>
-      </c>
-      <c r="Q31">
-        <v>2920.869744686384</v>
-      </c>
-      <c r="R31">
-        <v>2920.869744686384</v>
-      </c>
-      <c r="S31">
-        <v>0.01260421976901809</v>
-      </c>
-      <c r="T31">
-        <v>0.01260421976901809</v>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>23.139818</v>
+      </c>
+      <c r="H36">
+        <v>46.279636</v>
+      </c>
+      <c r="I36">
+        <v>0.06446646152903331</v>
+      </c>
+      <c r="J36">
+        <v>0.04480531704270962</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>121.733284</v>
+      </c>
+      <c r="N36">
+        <v>365.199852</v>
+      </c>
+      <c r="O36">
+        <v>0.1716606440086599</v>
+      </c>
+      <c r="P36">
+        <v>0.2003326860218846</v>
+      </c>
+      <c r="Q36">
+        <v>2816.886036302311</v>
+      </c>
+      <c r="R36">
+        <v>16901.31621781387</v>
+      </c>
+      <c r="S36">
+        <v>0.01106635430303335</v>
+      </c>
+      <c r="T36">
+        <v>0.008975969511228143</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>23.139818</v>
+      </c>
+      <c r="H37">
+        <v>46.279636</v>
+      </c>
+      <c r="I37">
+        <v>0.06446646152903331</v>
+      </c>
+      <c r="J37">
+        <v>0.04480531704270962</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>139.9082645</v>
+      </c>
+      <c r="N37">
+        <v>279.816529</v>
+      </c>
+      <c r="O37">
+        <v>0.1972898618770847</v>
+      </c>
+      <c r="P37">
+        <v>0.1534951247677137</v>
+      </c>
+      <c r="Q37">
+        <v>3237.451777225861</v>
+      </c>
+      <c r="R37">
+        <v>12949.80710890344</v>
+      </c>
+      <c r="S37">
+        <v>0.01271857929076738</v>
+      </c>
+      <c r="T37">
+        <v>0.006877397729727683</v>
       </c>
     </row>
   </sheetData>
